--- a/data/excel/json/30PE_Results_ALL.xlsx
+++ b/data/excel/json/30PE_Results_ALL.xlsx
@@ -80443,6 +80443,9 @@
       <c r="A2" t="str">
         <v>BEIJ</v>
       </c>
+      <c r="B2" t="str">
+        <v>0</v>
+      </c>
       <c r="D2" t="str">
         <v>0.47528</v>
       </c>
